--- a/tool/按键表.xlsx
+++ b/tool/按键表.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="238" yWindow="106" windowWidth="14810" windowHeight="8019"/>
+    <workbookView xWindow="238" yWindow="106" windowWidth="14810" windowHeight="8019" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="code" sheetId="2" r:id="rId1"/>
     <sheet name="excel" sheetId="3" r:id="rId2"/>
-    <sheet name="new" sheetId="4" r:id="rId3"/>
+    <sheet name="keystr" sheetId="5" r:id="rId3"/>
+    <sheet name="new" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="1705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="1718">
   <si>
     <t>KEY_MAX_NUM</t>
   </si>
@@ -5148,6 +5149,45 @@
   </si>
   <si>
     <t>MSG_MEDIA_STOP</t>
+  </si>
+  <si>
+    <t>f021</t>
+  </si>
+  <si>
+    <t>e070</t>
+  </si>
+  <si>
+    <t>f027</t>
+  </si>
+  <si>
+    <t>f025</t>
+  </si>
+  <si>
+    <t>f028</t>
+  </si>
+  <si>
+    <t>e074</t>
+  </si>
+  <si>
+    <t>f001</t>
+  </si>
+  <si>
+    <t>f002</t>
+  </si>
+  <si>
+    <t>e003</t>
+  </si>
+  <si>
+    <t>e002</t>
+  </si>
+  <si>
+    <t>fa17</t>
+  </si>
+  <si>
+    <t>f023</t>
+  </si>
+  <si>
+    <t>f022</t>
   </si>
 </sst>
 </file>
@@ -5639,8 +5679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F428" sqref="F428"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
@@ -18438,7 +18478,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="9.9499999999999993" x14ac:dyDescent="0.15"/>
@@ -18748,10 +18788,500 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B1" t="str">
+        <f>IF(ISNUMBER(MATCH($A1,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C1" t="str">
+        <f>IF(ISNUMBER(MATCH($A1,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A1,code!H$120:H$278,0)),"")</f>
+        <v>MSG_OPEN_WINDOW</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B2" t="str">
+        <f>IF(ISNUMBER(MATCH($A2,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <f>IF(ISNUMBER(MATCH($A2,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A2,code!H$120:H$278,0)),"")</f>
+        <v>MSG_NOTIFY_ANIM_DISPLAY_IND</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B3" t="str">
+        <f>IF(ISNUMBER(MATCH($A3,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <f>IF(ISNUMBER(MATCH($A3,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A3,code!H$120:H$278,0)),"")</f>
+        <v>MSG_PRE_FULL_PAINT</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B4" t="str">
+        <f>IF(ISNUMBER(MATCH($A4,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <f>IF(ISNUMBER(MATCH($A4,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A4,code!H$120:H$278,0)),"")</f>
+        <v>MSG_FULL_PAINT</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="str">
+        <f>IF(ISNUMBER(MATCH($A5,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <f>IF(ISNUMBER(MATCH($A5,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A5,code!H$120:H$278,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B6" t="str">
+        <f>IF(ISNUMBER(MATCH($A6,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <f>IF(ISNUMBER(MATCH($A6,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A6,code!H$120:H$278,0)),"")</f>
+        <v>MSG_END_FULL_PAINT</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B7" t="str">
+        <f>IF(ISNUMBER(MATCH($A7,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <f>IF(ISNUMBER(MATCH($A7,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A7,code!H$120:H$278,0)),"")</f>
+        <v>MSG_NOTIFY_ANIM_UPDATE_END</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B8" t="str">
+        <f>IF(ISNUMBER(MATCH($A8,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <f>IF(ISNUMBER(MATCH($A8,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A8,code!H$120:H$278,0)),"")</f>
+        <v>MSG_PRE_FULL_PAINT</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B9" t="str">
+        <f>IF(ISNUMBER(MATCH($A9,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <f>IF(ISNUMBER(MATCH($A9,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A9,code!H$120:H$278,0)),"")</f>
+        <v>MSG_FULL_PAINT</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B10" t="str">
+        <f>IF(ISNUMBER(MATCH($A10,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <f>IF(ISNUMBER(MATCH($A10,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A10,code!H$120:H$278,0)),"")</f>
+        <v>MSG_END_FULL_PAINT</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B11" t="str">
+        <f>IF(ISNUMBER(MATCH($A11,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <f>IF(ISNUMBER(MATCH($A11,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A11,code!H$120:H$278,0)),"")</f>
+        <v>MSG_NOTIFY_ANIM_UPDATE_END</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B12" t="str">
+        <f>IF(ISNUMBER(MATCH($A12,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <f>IF(ISNUMBER(MATCH($A12,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A12,code!H$120:H$278,0)),"")</f>
+        <v>MSG_PRE_FULL_PAINT</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B13" t="str">
+        <f>IF(ISNUMBER(MATCH($A13,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <f>IF(ISNUMBER(MATCH($A13,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A13,code!H$120:H$278,0)),"")</f>
+        <v>MSG_FULL_PAINT</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B14" t="str">
+        <f>IF(ISNUMBER(MATCH($A14,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <f>IF(ISNUMBER(MATCH($A14,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A14,code!H$120:H$278,0)),"")</f>
+        <v>MSG_END_FULL_PAINT</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B15" t="str">
+        <f>IF(ISNUMBER(MATCH($A15,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <f>IF(ISNUMBER(MATCH($A15,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A15,code!H$120:H$278,0)),"")</f>
+        <v>MSG_NOTIFY_ANIM_UPDATE_END</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B16" t="str">
+        <f>IF(ISNUMBER(MATCH($A16,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <f>IF(ISNUMBER(MATCH($A16,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A16,code!H$120:H$278,0)),"")</f>
+        <v>MSG_PRE_FULL_PAINT</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B17" t="str">
+        <f>IF(ISNUMBER(MATCH($A17,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <f>IF(ISNUMBER(MATCH($A17,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A17,code!H$120:H$278,0)),"")</f>
+        <v>MSG_FULL_PAINT</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B18" t="str">
+        <f>IF(ISNUMBER(MATCH($A18,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <f>IF(ISNUMBER(MATCH($A18,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A18,code!H$120:H$278,0)),"")</f>
+        <v>MSG_END_FULL_PAINT</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B19" t="str">
+        <f>IF(ISNUMBER(MATCH($A19,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <f>IF(ISNUMBER(MATCH($A19,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A19,code!H$120:H$278,0)),"")</f>
+        <v>MSG_NOTIFY_ANIM_UPDATE_END</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B20" t="str">
+        <f>IF(ISNUMBER(MATCH($A20,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <f>IF(ISNUMBER(MATCH($A20,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A20,code!H$120:H$278,0)),"")</f>
+        <v>MSG_PRE_FULL_PAINT</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B21" t="str">
+        <f>IF(ISNUMBER(MATCH($A21,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <f>IF(ISNUMBER(MATCH($A21,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A21,code!H$120:H$278,0)),"")</f>
+        <v>MSG_FULL_PAINT</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B22" t="str">
+        <f>IF(ISNUMBER(MATCH($A22,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <f>IF(ISNUMBER(MATCH($A22,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A22,code!H$120:H$278,0)),"")</f>
+        <v>MSG_END_FULL_PAINT</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B23" t="str">
+        <f>IF(ISNUMBER(MATCH($A23,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <f>IF(ISNUMBER(MATCH($A23,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A23,code!H$120:H$278,0)),"")</f>
+        <v>MSG_NOTIFY_ANIM_UPDATE_END</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B24" t="str">
+        <f>IF(ISNUMBER(MATCH($A24,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <f>IF(ISNUMBER(MATCH($A24,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A24,code!H$120:H$278,0)),"")</f>
+        <v>MSG_TP_PRESS_DOWN</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B25" t="str">
+        <f>IF(ISNUMBER(MATCH($A25,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <f>IF(ISNUMBER(MATCH($A25,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A25,code!H$120:H$278,0)),"")</f>
+        <v>MSG_TP_PRESS_UP</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B26" t="str">
+        <f>IF(ISNUMBER(MATCH($A26,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <f>IF(ISNUMBER(MATCH($A26,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A26,code!H$120:H$278,0)),"")</f>
+        <v>MSG_NOTIFY_PENOK</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B27" t="str">
+        <f>IF(ISNUMBER(MATCH($A27,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <f>IF(ISNUMBER(MATCH($A27,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A27,code!H$120:H$278,0)),"")</f>
+        <v>MSG_NOTIFY_CANCEL</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B28" t="str">
+        <f>IF(ISNUMBER(MATCH($A28,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <f>IF(ISNUMBER(MATCH($A28,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A28,code!H$120:H$278,0)),"")</f>
+        <v>MSG_OPEN_WINDOW</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B29" t="str">
+        <f>IF(ISNUMBER(MATCH($A29,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <f>IF(ISNUMBER(MATCH($A29,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A29,code!H$120:H$278,0)),"")</f>
+        <v>MSG_PRE_FULL_PAINT</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B30" t="str">
+        <f>IF(ISNUMBER(MATCH($A30,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <f>IF(ISNUMBER(MATCH($A30,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A30,code!H$120:H$278,0)),"")</f>
+        <v>MSG_FULL_PAINT</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B31" t="str">
+        <f>IF(ISNUMBER(MATCH($A31,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <f>IF(ISNUMBER(MATCH($A31,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A31,code!H$120:H$278,0)),"")</f>
+        <v>MSG_END_FULL_PAINT</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B32" t="str">
+        <f>IF(ISNUMBER(MATCH($A32,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <f>IF(ISNUMBER(MATCH($A32,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A32,code!H$120:H$278,0)),"")</f>
+        <v>MSG_NOTIFY_ANIM_DISPLAY_IND</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B33" t="str">
+        <f>IF(ISNUMBER(MATCH($A33,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <f>IF(ISNUMBER(MATCH($A33,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A33,code!H$120:H$278,0)),"")</f>
+        <v>MSG_NOTIFY_ANIM_UPDATE_END</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B34" t="str">
+        <f>IF(ISNUMBER(MATCH($A34,code!N$2:N$527,0)),INDEX(code!J$2:J$527,MATCH($A34,code!N$2:N$527,0)),"")</f>
+        <v>MSG_KEYDOWN_CANCEL</v>
+      </c>
+      <c r="C34" t="str">
+        <f>IF(ISNUMBER(MATCH($A34,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A34,code!H$120:H$278,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B35" t="str">
+        <f>IF(ISNUMBER(MATCH($A35,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <f>IF(ISNUMBER(MATCH($A35,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A35,code!H$120:H$278,0)),"")</f>
+        <v>MSG_LOSE_FOCUS</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B36" t="str">
+        <f>IF(ISNUMBER(MATCH($A36,code!N$2:N$527,0)),"TRUE","")</f>
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <f>IF(ISNUMBER(MATCH($A36,code!H$120:H$278,0)),INDEX(code!F$120:F$278,MATCH($A36,code!H$120:H$278,0)),"")</f>
+        <v>MSG_CLOSE_WINDOW</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>

--- a/tool/按键表.xlsx
+++ b/tool/按键表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="238" yWindow="106" windowWidth="14810" windowHeight="8019" activeTab="2"/>
+    <workbookView xWindow="238" yWindow="106" windowWidth="14810" windowHeight="8019" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="code" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="1718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3098" uniqueCount="1733">
   <si>
     <t>KEY_MAX_NUM</t>
   </si>
@@ -5188,13 +5188,70 @@
   </si>
   <si>
     <t>f022</t>
+  </si>
+  <si>
+    <t>fa18</t>
+  </si>
+  <si>
+    <t>f025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSG_CLOSE_WINDOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f024</t>
+  </si>
+  <si>
+    <t>f025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSG_TP_PRESS_DOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSG_PRE_FULL_PAINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSG_OPEN_WINDOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5273,6 +5330,33 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -5318,7 +5402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -5373,6 +5457,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5679,8 +5766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N527"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A204" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F220" sqref="F220:F222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
@@ -12700,7 +12787,7 @@
       </c>
     </row>
     <row r="220" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F220" s="11" t="s">
+      <c r="F220" s="28" t="s">
         <v>1652</v>
       </c>
       <c r="G220" s="18">
@@ -12726,7 +12813,7 @@
       </c>
     </row>
     <row r="221" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F221" s="11" t="s">
+      <c r="F221" s="28" t="s">
         <v>1653</v>
       </c>
       <c r="G221" s="18">
@@ -12752,7 +12839,7 @@
       </c>
     </row>
     <row r="222" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F222" s="11" t="s">
+      <c r="F222" s="28" t="s">
         <v>1654</v>
       </c>
       <c r="G222" s="18">
@@ -18475,17 +18562,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="9.9499999999999993" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="8.88671875" style="3"/>
     <col min="4" max="4" width="16.33203125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="5" max="5" width="11" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -18532,11 +18620,11 @@
         <v>61479</v>
       </c>
       <c r="B3" s="6">
-        <f t="shared" ref="B3:B12" si="0">INT((A3/2^8))*2^8</f>
+        <f t="shared" ref="B3:B13" si="0">INT((A3/2^8))*2^8</f>
         <v>61440</v>
       </c>
       <c r="C3" s="6">
-        <f t="shared" ref="C3:C12" si="1">MOD(A3,2^8)</f>
+        <f t="shared" ref="C3:C13" si="1">MOD(A3,2^8)</f>
         <v>39</v>
       </c>
       <c r="D3" s="7" t="str">
@@ -18750,34 +18838,253 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
+      <c r="A13" s="9">
+        <v>64071</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>64000</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f>INDEX(code!$F$2:$F$7,MATCH($B13,code!$G$2:$G$7,))</f>
+        <v>KEY_PRESSED</v>
+      </c>
+      <c r="E13" s="7" t="str">
+        <f>INDEX(code!$F$8:$F$115,MATCH($C13,code!$G$8:$G$115,))</f>
+        <v>KEY_SHIFT</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
+      <c r="A14" s="27">
+        <v>64024</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" ref="B14" si="2">INT((A14/2^8))*2^8</f>
+        <v>64000</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" ref="C14" si="3">MOD(A14,2^8)</f>
+        <v>24</v>
+      </c>
+      <c r="D14" s="7" t="str">
+        <f>INDEX(code!$F$2:$F$7,MATCH($B14,code!$G$2:$G$7,))</f>
+        <v>KEY_PRESSED</v>
+      </c>
+      <c r="E14" s="7" t="str">
+        <f>INDEX(code!$F$8:$F$115,MATCH($C14,code!$G$8:$G$115,))</f>
+        <v>KEY_RED</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
+      <c r="A15" s="27">
+        <v>64023</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" ref="B15:B16" si="4">INT((A15/2^8))*2^8</f>
+        <v>64000</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" ref="C15:C16" si="5">MOD(A15,2^8)</f>
+        <v>23</v>
+      </c>
+      <c r="D15" s="7" t="str">
+        <f>INDEX(code!$F$2:$F$7,MATCH($B15,code!$G$2:$G$7,))</f>
+        <v>KEY_PRESSED</v>
+      </c>
+      <c r="E15" s="7" t="str">
+        <f>INDEX(code!$F$8:$F$115,MATCH($C15,code!$G$8:$G$115,))</f>
+        <v>KEY_CANCEL</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>61474</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" si="4"/>
+        <v>61440</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="D16" s="7" t="str">
+        <f>INDEX(code!$F$2:$F$7,MATCH($B16,code!$G$2:$G$7,))</f>
+        <v>MSG_KERNEL_START</v>
+      </c>
+      <c r="E16" s="7" t="str">
+        <f>INDEX(code!$F$8:$F$115,MATCH($C16,code!$G$8:$G$115,))</f>
+        <v>KEY_VIDEO_TEL</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9"/>
+    <row r="22" spans="1:3" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B22" s="3">
+        <f>HEX2DEC(A22)</f>
+        <v>61477</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B23" s="3">
+        <f>HEX2DEC(A23)</f>
+        <v>61476</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="26" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B24" s="3">
+        <f>HEX2DEC(A24)</f>
+        <v>64023</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="26" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B25" s="3">
+        <f>HEX2DEC(A25)</f>
+        <v>64024</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B26" s="3">
+        <f>HEX2DEC(A26)</f>
+        <v>61474</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B27" s="3">
+        <f>HEX2DEC(A27)</f>
+        <v>61475</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B28" s="3">
+        <f>HEX2DEC(A28)</f>
+        <v>61477</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B29" s="3">
+        <f>HEX2DEC(A29)</f>
+        <v>61441</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B30" s="3">
+        <f>HEX2DEC(A30)</f>
+        <v>61479</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B31" s="3">
+        <f>HEX2DEC(A31)</f>
+        <v>64003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B32" s="3">
+        <f t="shared" ref="B32:B34" si="6">HEX2DEC(A32)</f>
+        <v>61473</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B33" s="3">
+        <f t="shared" si="6"/>
+        <v>61480</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B34" s="3">
+        <f t="shared" si="6"/>
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -18790,8 +19097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
